--- a/bots/crawl_ch/output/clothes_2022-09-08.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-09-08.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-09-08 07:11:43</t>
+          <t>2022-09-08 21:00:56</t>
         </is>
       </c>
     </row>
